--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10620" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="10920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Catégorie</t>
   </si>
@@ -115,10 +115,61 @@
     <t>balise style dans img</t>
   </si>
   <si>
+    <t>div class "keywords" dans la div navigation</t>
+  </si>
+  <si>
+    <t>div class "keywords" style twitter</t>
+  </si>
+  <si>
     <t>taille</t>
   </si>
   <si>
     <t>vitesse</t>
+  </si>
+  <si>
+    <t>balise style height="40" dans &lt;a class="navbar-brand"&gt;</t>
+  </si>
+  <si>
+    <t>style="color:#cccccc dans div class="keywords"</t>
+  </si>
+  <si>
+    <t>&lt;a href="page2.html"&gt;page2 &amp;gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>trop de balises inutiles</t>
+  </si>
+  <si>
+    <t>onglets</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;Stratégie</t>
+  </si>
+  <si>
+    <t>la-chouette-agence-banniere-largest</t>
+  </si>
+  <si>
+    <t>!important CSS background btn-atomic-tangerine</t>
+  </si>
+  <si>
+    <t>background-color: #F3976C =&gt; contrast des couleurs KO</t>
+  </si>
+  <si>
+    <t>rgba (0, 0, 0, 6) pour la couleur des onglets de navigation au lieu de #000</t>
+  </si>
+  <si>
+    <t>Les images de texte doivent être évitées</t>
+  </si>
+  <si>
+    <t>&lt;img alt="agence web, agence web paris, web design paris, stratégie web" src="img/title.png"&gt;</t>
+  </si>
+  <si>
+    <t>title.png &amp; title2.png supprimés</t>
+  </si>
+  <si>
+    <t>visibilité</t>
+  </si>
+  <si>
+    <t>#page-loading-blocs-notifaction : z-index : 100 000</t>
   </si>
 </sst>
 </file>
@@ -126,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -174,13 +225,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,6 +236,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,6 +357,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -207,119 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -336,127 +387,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,54 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +600,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +621,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -584,17 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,164 +678,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,6 +834,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,16 +1097,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2867647058824" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.2867647058824" customWidth="1"/>
-    <col min="2" max="2" width="27.4485294117647" customWidth="1"/>
+    <col min="1" max="1" width="37.2573529411765" customWidth="1"/>
+    <col min="2" max="2" width="75.7352941176471" customWidth="1"/>
     <col min="3" max="3" width="43.6176470588235" customWidth="1"/>
     <col min="4" max="4" width="33.2058823529412" customWidth="1"/>
     <col min="5" max="5" width="30.5147058823529" customWidth="1"/>
@@ -1079,26 +1133,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -1222,36 +1276,102 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
+    <row r="16" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1"/>
@@ -2219,6 +2339,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Catégorie</t>
   </si>
@@ -170,6 +170,33 @@
   </si>
   <si>
     <t>#page-loading-blocs-notifaction : z-index : 100 000</t>
+  </si>
+  <si>
+    <t>1.jpg = 273ko - après conversion = 87 ko / -48% sur 2.jpg / 23ko au lieu de 307ko pour 3.bmp / 32ko au lieu de 307ko pour 4.bmp</t>
+  </si>
+  <si>
+    <t>&lt;a class="navbar-brand" href="index.html"&gt; concernant &lt;img src="img/la-chouette-agence-logo.png" alt="la chouette agence logo"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button id="nav-toggle" type="button" class="ui-navbar-toggle navbar-toggle" data-toggle="collapse" data-target=".navbar-1"&gt;</t>
+  </si>
+  <si>
+    <t>page loading spinner</t>
+  </si>
+  <si>
+    <t>propriété non-standard qui ne devrait pas être utilisée.</t>
+  </si>
+  <si>
+    <t>4.bmp : 307 ko vs 4.jpg 32 ko / la-chouette-agence-banniere-large.jpg 615 ko vs la-chouette-agence-banniere 184 ko</t>
+  </si>
+  <si>
+    <t> -webkit-font-smoothing / -moz-background-size / -webkit-background-size / -webkit-transform / la propriété de média min-device-width déconseillé</t>
+  </si>
+  <si>
+    <t>La propriétés de media “max-device-width” est déconseillée.</t>
+  </si>
+  <si>
+    <t>.bloc : propriété erronée</t>
   </si>
 </sst>
 </file>
@@ -177,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +241,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF1F2126"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +258,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -251,15 +284,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +385,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,91 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,139 +420,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,43 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +638,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,180 +691,175 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,6 +871,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,14 +1133,14 @@
   <sheetPr/>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2867647058824" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.2573529411765" customWidth="1"/>
-    <col min="2" max="2" width="75.7352941176471" customWidth="1"/>
+    <col min="2" max="2" width="115.801470588235" customWidth="1"/>
     <col min="3" max="3" width="43.6176470588235" customWidth="1"/>
     <col min="4" max="4" width="33.2058823529412" customWidth="1"/>
     <col min="5" max="5" width="30.5147058823529" customWidth="1"/>
@@ -1133,26 +1167,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -1372,15 +1406,51 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" spans="2:2">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B41" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10920" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>Catégorie</t>
   </si>
@@ -172,7 +172,7 @@
     <t>#page-loading-blocs-notifaction : z-index : 100 000</t>
   </si>
   <si>
-    <t>1.jpg = 273ko - après conversion = 87 ko / -48% sur 2.jpg / 23ko au lieu de 307ko pour 3.bmp / 32ko au lieu de 307ko pour 4.bmp</t>
+    <t>books.jpg = 273ko - après conversion = 87 ko / -48% sur photographer.jpg / 23ko au lieu de 307ko pour electronic-tools.bmp / 32ko au lieu de 307ko pour computer.bmp</t>
   </si>
   <si>
     <t>&lt;a class="navbar-brand" href="index.html"&gt; concernant &lt;img src="img/la-chouette-agence-logo.png" alt="la chouette agence logo"&gt;</t>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>.bloc : propriété erronée</t>
+  </si>
+  <si>
+    <t>label for non mentionnés</t>
   </si>
 </sst>
 </file>
@@ -204,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -263,6 +266,113 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,92 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -383,27 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,19 +429,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,157 +543,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,26 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,26 +643,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,166 +667,192 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,13 +1137,13 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2867647058824" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.2573529411765" customWidth="1"/>
-    <col min="2" max="2" width="115.801470588235" customWidth="1"/>
+    <col min="2" max="2" width="132.963235294118" customWidth="1"/>
     <col min="3" max="3" width="43.6176470588235" customWidth="1"/>
     <col min="4" max="4" width="33.2058823529412" customWidth="1"/>
     <col min="5" max="5" width="30.5147058823529" customWidth="1"/>
@@ -1452,7 +1455,11 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>Catégorie</t>
   </si>
@@ -61,64 +61,43 @@
     <t>description précise</t>
   </si>
   <si>
+    <t>meta name="viewport"</t>
+  </si>
+  <si>
+    <t>css : device-width</t>
+  </si>
+  <si>
+    <t>fonctionnalité supprimée des standards du Web</t>
+  </si>
+  <si>
+    <t>css : max-device-width</t>
+  </si>
+  <si>
+    <t>obsoltèle</t>
+  </si>
+  <si>
+    <t>balise canonical</t>
+  </si>
+  <si>
+    <t>identification de la page principale</t>
+  </si>
+  <si>
+    <t>alt img</t>
+  </si>
+  <si>
+    <t>contient trop de mots-clés</t>
+  </si>
+  <si>
+    <t>balise style dans img</t>
+  </si>
+  <si>
+    <t>div class "keywords" dans la div navigation</t>
+  </si>
+  <si>
+    <t>div class "keywords" style twitter</t>
+  </si>
+  <si>
     <t>accessibilité</t>
-  </si>
-  <si>
-    <t>htm lang</t>
-  </si>
-  <si>
-    <t>"Default"</t>
-  </si>
-  <si>
-    <t>lang=fr</t>
-  </si>
-  <si>
-    <t>meta name="viewport"</t>
-  </si>
-  <si>
-    <t>css : device-width</t>
-  </si>
-  <si>
-    <t>fonctionnalité supprimée des standards du Web</t>
-  </si>
-  <si>
-    <t>css : max-device-width</t>
-  </si>
-  <si>
-    <t>obsoltèle</t>
-  </si>
-  <si>
-    <t>constant(safe-area-inset-left)</t>
-  </si>
-  <si>
-    <t>n'est pas une valeur de padding-left (l. 876 et 887)</t>
-  </si>
-  <si>
-    <t>constant(safe-area-inset-right)</t>
-  </si>
-  <si>
-    <t>n'est pas une valeur de padding-right (l. 877 et 888)</t>
-  </si>
-  <si>
-    <t>balise canonical</t>
-  </si>
-  <si>
-    <t>identification de la page principale</t>
-  </si>
-  <si>
-    <t>alt img</t>
-  </si>
-  <si>
-    <t>contient trop de mots-clés</t>
-  </si>
-  <si>
-    <t>balise style dans img</t>
-  </si>
-  <si>
-    <t>div class "keywords" dans la div navigation</t>
-  </si>
-  <si>
-    <t>div class "keywords" style twitter</t>
   </si>
   <si>
     <t>taille</t>
@@ -207,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -264,8 +243,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,43 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -323,90 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,26 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +616,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +652,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,157 +693,118 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,28 +813,28 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,8 +1115,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2867647058824" defaultRowHeight="15" customHeight="1"/>
@@ -1233,231 +1212,208 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" ht="15.75" customHeight="1" spans="4:4">
+      <c r="D7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:5">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="19" customHeight="1" spans="2:5">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="2:5">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
+    <row r="11" ht="15.75" customHeight="1" spans="5:5">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" ht="15.75" customHeight="1" spans="5:5">
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="2:5">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="2:5">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="2:5">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="2:2">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="2:2">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:2">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:2">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:2">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:2">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="2:2">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="2:2">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:2">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:2">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="2:2">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="2:2">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="2:2">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:2">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:2">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:2">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:2">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="2:2">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="2:2">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="2:2">
       <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:2">
       <c r="B42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1" spans="2:2">
       <c r="B44" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
